--- a/grade-exportacao.xlsx
+++ b/grade-exportacao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15240" windowHeight="7590"/>
+    <workbookView windowWidth="20400" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Exportar Planilha" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
   <si>
     <t>Status</t>
   </si>
@@ -79,16 +79,76 @@
     <t>Suporte Técnico</t>
   </si>
   <si>
+    <t>Yasmim</t>
+  </si>
+  <si>
+    <t>0 dia</t>
+  </si>
+  <si>
+    <t>cerca de 8 horas atrás</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Ferreira &amp; Goulart Advocacia e Consultoria Jurídic...</t>
+  </si>
+  <si>
+    <t>TR - Michelle entrou em contato dizendo que não recebe notificações de consultas de andamentos/diários oficiais realizadas. Abri u...</t>
+  </si>
+  <si>
+    <t>Vitor Pereira Diogo</t>
+  </si>
+  <si>
+    <t>1 dias</t>
+  </si>
+  <si>
+    <t>cerca de 5 horas atrás</t>
+  </si>
+  <si>
+    <t>Dalla Bernardina &amp; Advogados Associados</t>
+  </si>
+  <si>
+    <t>TR - Suporte - Shopping Jurídico &lt;suporte@shopjuridico.com.br&gt; 12:25 (há 0 minuto) para Alessandra Boa tarde, Alessandr...</t>
+  </si>
+  <si>
+    <t>2 dias</t>
+  </si>
+  <si>
+    <t>cerca de 7 horas atrás</t>
+  </si>
+  <si>
+    <t>Alvarenga &amp; Camargo Advogados Associados</t>
+  </si>
+  <si>
+    <t>TR - Entrei em contato com a Thomson sobre o retorno da SS, pois não tinha entendido bem. Pedi que me explicasse melhor e como eu ...</t>
+  </si>
+  <si>
     <t>Luiza</t>
   </si>
   <si>
-    <t>0 dia</t>
-  </si>
-  <si>
-    <t>cerca de 3 horas atrás</t>
-  </si>
-  <si>
-    <t>normal</t>
+    <t>2 dias atrás</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÕES DE MONITORAMENTO - Entrei em contato com Luiz Henrique e ele me informou que realizou o teste no horário sugerido e ...</t>
+  </si>
+  <si>
+    <t>Vitor Pereira Diogo Luiza Yasmim</t>
+  </si>
+  <si>
+    <t>cerca de uma hora atrás</t>
+  </si>
+  <si>
+    <t>SGMP - Schneebeli, Gimenes, Moraes e Pepe Advogado...</t>
+  </si>
+  <si>
+    <t>TR - Reunião com Priscila para definir respostas para a Thomson e para Iana. Elaboração de e-mail repassando para Iana as informaç...</t>
+  </si>
+  <si>
+    <t>5 dias</t>
+  </si>
+  <si>
+    <t>5 dias atrás</t>
   </si>
   <si>
     <t>Tardin &amp; Turino - Advogados Associados</t>
@@ -97,10 +157,10 @@
     <t>TR - Eliane entrou em contato nos informando que não está recebendo emails do LegalOne. Auxiliei a criar um gmail ou hotmail para ...</t>
   </si>
   <si>
-    <t>1 dias</t>
-  </si>
-  <si>
-    <t>um dia atrás</t>
+    <t>6 dias</t>
+  </si>
+  <si>
+    <t>6 dias atrás</t>
   </si>
   <si>
     <t>Randow e Fraga Advogados Associados</t>
@@ -109,10 +169,10 @@
     <t>EMISSÃO DE NOTA - Daniela havia informado erro ao fazer a emissão de nota. Priscila entrou em contato e fez o teste me informando...</t>
   </si>
   <si>
-    <t>2 dias</t>
-  </si>
-  <si>
-    <t>2 dias atrás</t>
+    <t>7 dias</t>
+  </si>
+  <si>
+    <t>7 dias atrás</t>
   </si>
   <si>
     <t>Mario Gomes Sociedade Individual de Advocacia</t>
@@ -124,7 +184,7 @@
     <t>Gabriel</t>
   </si>
   <si>
-    <t>3 dias</t>
+    <t>8 dias</t>
   </si>
   <si>
     <t>Sem andamento</t>
@@ -133,13 +193,10 @@
     <t>Passos Costa Advogados</t>
   </si>
   <si>
-    <t>Yasmim</t>
-  </si>
-  <si>
-    <t>8 dias</t>
-  </si>
-  <si>
-    <t>8 dias atrás</t>
+    <t>13 dias</t>
+  </si>
+  <si>
+    <t>13 dias atrás</t>
   </si>
   <si>
     <t>Neymar - Teste Sistema</t>
@@ -151,7 +208,7 @@
     <t>TR - Abri solicitação de suporte SS2658 para análise.</t>
   </si>
   <si>
-    <t>7 dias atrás</t>
+    <t>12 dias atrás</t>
   </si>
   <si>
     <t>Oliveira Cardoso, Carvalho de Brito, Libardi Comar...</t>
@@ -166,64 +223,37 @@
     <t>RELATÓRIO AGENDADO - entrou em contato dizendo que o recebimento de relatórios agendados está instável. Abri a SS 19679 para análi...</t>
   </si>
   <si>
+    <t>14 dias atrás</t>
+  </si>
+  <si>
+    <t>Barroso &amp; Baidek Advogados Associados S.S. -ME</t>
+  </si>
+  <si>
+    <t>TR - Cliente não está recebendo as notificações do Legal One. Expliquei o que está acontecendo e sugeri criar um gmail/hotmail par...</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>15 dias</t>
+  </si>
+  <si>
     <t>9 dias atrás</t>
   </si>
   <si>
-    <t>Barroso &amp; Baidek Advogados Associados S.S. -ME</t>
-  </si>
-  <si>
-    <t>TR - Cliente não está recebendo as notificações do Legal One. Expliquei o que está acontecendo e sugeri criar um gmail/hotmail par...</t>
-  </si>
-  <si>
-    <t>Vitor Pereira Diogo</t>
-  </si>
-  <si>
-    <t>9 dias</t>
-  </si>
-  <si>
-    <t>Dalla Bernardina &amp; Advogados Associados</t>
-  </si>
-  <si>
-    <t>Informei a ele que fizemos alguns ajustes e o sistema voltou a executar novamente. Agora é preciso verificar se eles vão receber a...</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>10 dias</t>
-  </si>
-  <si>
-    <t>4 dias atrás</t>
-  </si>
-  <si>
     <t>Cavalcanti, Oliveira, Antunes &amp; Nascimento Advogad...</t>
   </si>
   <si>
     <t>TR - Lucas me encaminhou o email com os números de processo que estão com data do andamento errada. Realizei testes e abri a SS 19...</t>
   </si>
   <si>
-    <t>Vitor Pereira Diogo Genilda</t>
-  </si>
-  <si>
-    <t>11 dias</t>
-  </si>
-  <si>
-    <t>cerca de 6 horas atrás</t>
-  </si>
-  <si>
-    <t>Fiorot Advogados Associados</t>
-  </si>
-  <si>
-    <t>TR - Mattos, Rodrigo (Corporates) 11:04 (há 1 hora) para marcia@fiorot.adv.br, mim Prezados, bom dia. Referente ao ...</t>
-  </si>
-  <si>
     <t>Gabriel Luiza</t>
   </si>
   <si>
-    <t>14 dias</t>
-  </si>
-  <si>
-    <t>11 dias atrás</t>
+    <t>19 dias</t>
+  </si>
+  <si>
+    <t>16 dias atrás</t>
   </si>
   <si>
     <t>Liberdade Consultoria e Participações Ltda</t>
@@ -232,10 +262,7 @@
     <t>Passou um novo numero de processo da ANTAQ também com erro. A Fu reportará esse processo também.</t>
   </si>
   <si>
-    <t>15 dias</t>
-  </si>
-  <si>
-    <t>15 dias atrás</t>
+    <t>20 dias atrás</t>
   </si>
   <si>
     <t>Charles Braga Sociedade Individual de Advocacia</t>
@@ -244,7 +271,7 @@
     <t>Acessei mais uma vez remotamente para tentar solucionar a questão do Spamcop, mas não conseguimos. Ele abriu chamado com o hostgat...</t>
   </si>
   <si>
-    <t>16 dias</t>
+    <t>21 dias</t>
   </si>
   <si>
     <t>Dma Distribuidora S/A</t>
@@ -256,7 +283,7 @@
     <t>Carlos de Souza - Advogados - EPP</t>
   </si>
   <si>
-    <t>Entrei em contato com o TI do Carlos de Souza várias vezes durante o dia e tentamos resolver a questão dos emails do sistema que e...</t>
+    <t>USUÁRIO - conversei com Tiago sobre criar um gmail para os usuários que recebem as notificações do sistema e redirecionar esses gm...</t>
   </si>
   <si>
     <t>R$0,00</t>
@@ -267,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -303,7 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,31 +343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,14 +375,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,17 +396,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,35 +457,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -447,19 +474,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,163 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,6 +665,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,17 +692,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,15 +718,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -701,16 +728,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,130 +770,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,10 +902,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1232,7 +1259,7 @@
     <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,13 +1271,13 @@
     <col min="2" max="2" width="7.14285714285714"/>
     <col min="3" max="3" width="7.28571428571429"/>
     <col min="4" max="4" width="14.5714285714286"/>
-    <col min="5" max="5" width="24.4285714285714"/>
+    <col min="5" max="5" width="30"/>
     <col min="6" max="6" width="17.1428571428571"/>
     <col min="7" max="7" width="11.1428571428571"/>
     <col min="8" max="8" width="17.8571428571429"/>
     <col min="9" max="10" width="28.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="8.57142857142857"/>
-    <col min="12" max="12" width="18.5714285714286"/>
+    <col min="12" max="12" width="20.2857142857143"/>
     <col min="13" max="13" width="10.4285714285714"/>
     <col min="14" max="14" width="8.57142857142857"/>
     <col min="15" max="16" width="41.1428571428571"/>
@@ -1324,7 +1351,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <v>22354</v>
+        <v>22392</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1338,7 +1365,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="2" t="s">
@@ -1369,28 +1396,28 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4">
-        <v>22343</v>
+        <v>22391</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5">
-        <v>44336</v>
+        <v>44341</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>24</v>
@@ -1399,10 +1426,10 @@
         <v>0.1</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1414,7 +1441,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4">
-        <v>22327</v>
+        <v>22375</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1428,14 +1455,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="5">
-        <v>44335</v>
+        <v>44340</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>24</v>
@@ -1444,38 +1471,40 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" ht="13.5" spans="1:19">
+    <row r="5" ht="54" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4">
-        <v>22312</v>
+        <v>22374</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="5">
-        <v>44334</v>
+        <v>44340</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>37</v>
@@ -1487,20 +1516,22 @@
         <v>0.1</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" ht="13.5" spans="1:19">
+    <row r="6" ht="40.5" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4">
-        <v>22275</v>
+        <v>22367</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1509,19 +1540,19 @@
         <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>24</v>
@@ -1530,43 +1561,43 @@
         <v>0.1</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" ht="27" spans="1:19">
+    <row r="7" ht="40.5" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
-        <v>22274</v>
+        <v>22354</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="5">
-        <v>44329</v>
+        <v>44337</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>24</v>
@@ -1575,10 +1606,10 @@
         <v>0.1</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1590,28 +1621,28 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4">
-        <v>22273</v>
+        <v>22343</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="5">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>24</v>
@@ -1620,10 +1651,10 @@
         <v>0.1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1635,28 +1666,28 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
-        <v>22272</v>
+        <v>22327</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5">
-        <v>44329</v>
+        <v>44335</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>24</v>
@@ -1665,43 +1696,41 @@
         <v>0.1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" ht="40.5" spans="1:19">
+    <row r="10" ht="13.5" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4">
-        <v>22268</v>
+        <v>22312</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5">
-        <v>44328</v>
+        <v>44334</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>24</v>
@@ -1710,43 +1739,41 @@
         <v>0.1</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" ht="40.5" spans="1:19">
+    <row r="11" ht="13.5" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
-        <v>22263</v>
+        <v>22275</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="5">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>24</v>
@@ -1755,43 +1782,43 @@
         <v>0.1</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" ht="40.5" spans="1:19">
+    <row r="12" ht="27" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4">
-        <v>22257</v>
+        <v>22274</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>24</v>
@@ -1800,10 +1827,10 @@
         <v>0.1</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1815,25 +1842,25 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
-        <v>22247</v>
+        <v>22273</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="5">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>64</v>
@@ -1860,28 +1887,28 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
-        <v>22214</v>
+        <v>22272</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="5">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>24</v>
@@ -1890,10 +1917,10 @@
         <v>0.1</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1905,28 +1932,28 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
-        <v>22204</v>
+        <v>22268</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="5">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>24</v>
@@ -1935,43 +1962,43 @@
         <v>0.1</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" ht="27" spans="1:19">
+    <row r="16" ht="40.5" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4">
-        <v>22180</v>
+        <v>22257</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="5">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>24</v>
@@ -1980,10 +2007,10 @@
         <v>0.1</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1995,28 +2022,28 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4">
-        <v>22179</v>
+        <v>22214</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="5">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>24</v>
@@ -2025,73 +2052,214 @@
         <v>0.1</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" ht="13.5" spans="1:19">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+    <row r="18" ht="40.5" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4">
+        <v>22204</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5">
+        <v>44322</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" ht="27" spans="1:19">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <v>22180</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="5">
+        <v>44321</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" ht="40.5" spans="1:19">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4">
+        <v>22179</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="5">
+        <v>44321</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" ht="13.5" spans="1:19">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
   </sheetData>
   <sheetProtection objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="22354"/>
-    <hyperlink ref="O2" r:id="rId2" display="Tardin &amp; Turino - Advogados Associados" tooltip="Tardin &amp; Turino - Advogados Associados"/>
-    <hyperlink ref="C3" r:id="rId3" display="22343"/>
-    <hyperlink ref="O3" r:id="rId4" display="Randow e Fraga Advogados Associados" tooltip="Randow e Fraga Advogados Associados"/>
-    <hyperlink ref="C4" r:id="rId5" display="22327"/>
-    <hyperlink ref="O4" r:id="rId6" display="Mario Gomes Sociedade Individual de Advocacia" tooltip="Mario Gomes Sociedade Individual de Advocacia"/>
-    <hyperlink ref="C5" r:id="rId7" display="22312"/>
-    <hyperlink ref="O5" r:id="rId8" display="Passos Costa Advogados" tooltip="Passos Costa Advogados"/>
-    <hyperlink ref="C6" r:id="rId9" display="22275"/>
-    <hyperlink ref="O6" r:id="rId10" display="Neymar - Teste Sistema" tooltip="Neymar - Teste Sistema"/>
-    <hyperlink ref="C7" r:id="rId11" display="22274"/>
-    <hyperlink ref="O7" r:id="rId10" display="Neymar - Teste Sistema" tooltip="Neymar - Teste Sistema"/>
-    <hyperlink ref="C8" r:id="rId12" display="22273"/>
-    <hyperlink ref="O8" r:id="rId13" display="Oliveira Cardoso, Carvalho de Brito, Libardi Comar..." tooltip="Oliveira Cardoso, Carvalho de Brito, Libardi Comarela e Zavarize Advogados Associados - ME"/>
-    <hyperlink ref="C9" r:id="rId14" display="22272"/>
-    <hyperlink ref="O9" r:id="rId15" display="SOPI - Siqueira &amp; Oliveira Advogados Associados S/..." tooltip="SOPI - Siqueira &amp; Oliveira Advogados Associados S/S"/>
-    <hyperlink ref="C10" r:id="rId16" display="22268"/>
-    <hyperlink ref="O10" r:id="rId17" display="Barroso &amp; Baidek Advogados Associados S.S. -ME" tooltip="Barroso &amp; Baidek Advogados Associados S.S. -ME"/>
-    <hyperlink ref="C11" r:id="rId18" display="22263"/>
-    <hyperlink ref="O11" r:id="rId19" display="Dalla Bernardina &amp; Advogados Associados" tooltip="Dalla Bernardina &amp; Advogados Associados"/>
-    <hyperlink ref="C12" r:id="rId20" display="22257"/>
-    <hyperlink ref="O12" r:id="rId21" display="Cavalcanti, Oliveira, Antunes &amp; Nascimento Advogad..." tooltip="Cavalcanti, Oliveira, Antunes &amp; Nascimento Advogados Associados - ME"/>
-    <hyperlink ref="C13" r:id="rId22" display="22247"/>
-    <hyperlink ref="O13" r:id="rId23" display="Fiorot Advogados Associados" tooltip="Fiorot Advogados Associados"/>
-    <hyperlink ref="C14" r:id="rId24" display="22214"/>
-    <hyperlink ref="O14" r:id="rId25" display="Liberdade Consultoria e Participações Ltda" tooltip="Liberdade Consultoria e Participações Ltda"/>
-    <hyperlink ref="C15" r:id="rId26" display="22204"/>
-    <hyperlink ref="O15" r:id="rId27" display="Charles Braga Sociedade Individual de Advocacia" tooltip="Charles Braga Sociedade Individual de Advocacia"/>
-    <hyperlink ref="C16" r:id="rId28" display="22180"/>
-    <hyperlink ref="O16" r:id="rId29" display="Dma Distribuidora S/A" tooltip="Dma Distribuidora S/A"/>
-    <hyperlink ref="C17" r:id="rId30" display="22179"/>
-    <hyperlink ref="O17" r:id="rId31" display="Carlos de Souza - Advogados - EPP" tooltip="Carlos de Souza - Advogados - EPP"/>
+    <hyperlink ref="C2" r:id="rId1" display="22392"/>
+    <hyperlink ref="O2" r:id="rId2" display="Ferreira &amp; Goulart Advocacia e Consultoria Jurídic..." tooltip="Ferreira &amp; Goulart Advocacia e Consultoria Jurídica - ME"/>
+    <hyperlink ref="C3" r:id="rId3" display="22391"/>
+    <hyperlink ref="O3" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados" tooltip="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="C4" r:id="rId5" display="22375"/>
+    <hyperlink ref="O4" r:id="rId6" display="Alvarenga &amp; Camargo Advogados Associados" tooltip="Alvarenga &amp; Camargo Advogados Associados"/>
+    <hyperlink ref="C5" r:id="rId7" display="22374"/>
+    <hyperlink ref="O5" r:id="rId6" display="Alvarenga &amp; Camargo Advogados Associados" tooltip="Alvarenga &amp; Camargo Advogados Associados"/>
+    <hyperlink ref="C6" r:id="rId8" display="22367"/>
+    <hyperlink ref="O6" r:id="rId9" display="SGMP - Schneebeli, Gimenes, Moraes e Pepe Advogado..." tooltip="SGMP - Schneebeli, Gimenes, Moraes e Pepe Advogados"/>
+    <hyperlink ref="C7" r:id="rId10" display="22354"/>
+    <hyperlink ref="O7" r:id="rId11" display="Tardin &amp; Turino - Advogados Associados" tooltip="Tardin &amp; Turino - Advogados Associados"/>
+    <hyperlink ref="C8" r:id="rId12" display="22343"/>
+    <hyperlink ref="O8" r:id="rId13" display="Randow e Fraga Advogados Associados" tooltip="Randow e Fraga Advogados Associados"/>
+    <hyperlink ref="C9" r:id="rId14" display="22327"/>
+    <hyperlink ref="O9" r:id="rId15" display="Mario Gomes Sociedade Individual de Advocacia" tooltip="Mario Gomes Sociedade Individual de Advocacia"/>
+    <hyperlink ref="C10" r:id="rId16" display="22312"/>
+    <hyperlink ref="O10" r:id="rId17" display="Passos Costa Advogados" tooltip="Passos Costa Advogados"/>
+    <hyperlink ref="C11" r:id="rId18" display="22275"/>
+    <hyperlink ref="O11" r:id="rId19" display="Neymar - Teste Sistema" tooltip="Neymar - Teste Sistema"/>
+    <hyperlink ref="C12" r:id="rId20" display="22274"/>
+    <hyperlink ref="O12" r:id="rId19" display="Neymar - Teste Sistema" tooltip="Neymar - Teste Sistema"/>
+    <hyperlink ref="C13" r:id="rId21" display="22273"/>
+    <hyperlink ref="O13" r:id="rId22" display="Oliveira Cardoso, Carvalho de Brito, Libardi Comar..." tooltip="Oliveira Cardoso, Carvalho de Brito, Libardi Comarela e Zavarize Advogados Associados - ME"/>
+    <hyperlink ref="C14" r:id="rId23" display="22272"/>
+    <hyperlink ref="O14" r:id="rId24" display="SOPI - Siqueira &amp; Oliveira Advogados Associados S/..." tooltip="SOPI - Siqueira &amp; Oliveira Advogados Associados S/S"/>
+    <hyperlink ref="C15" r:id="rId25" display="22268"/>
+    <hyperlink ref="O15" r:id="rId26" display="Barroso &amp; Baidek Advogados Associados S.S. -ME" tooltip="Barroso &amp; Baidek Advogados Associados S.S. -ME"/>
+    <hyperlink ref="C16" r:id="rId27" display="22257"/>
+    <hyperlink ref="O16" r:id="rId28" display="Cavalcanti, Oliveira, Antunes &amp; Nascimento Advogad..." tooltip="Cavalcanti, Oliveira, Antunes &amp; Nascimento Advogados Associados - ME"/>
+    <hyperlink ref="C17" r:id="rId29" display="22214"/>
+    <hyperlink ref="O17" r:id="rId30" display="Liberdade Consultoria e Participações Ltda" tooltip="Liberdade Consultoria e Participações Ltda"/>
+    <hyperlink ref="C18" r:id="rId31" display="22204"/>
+    <hyperlink ref="O18" r:id="rId32" display="Charles Braga Sociedade Individual de Advocacia" tooltip="Charles Braga Sociedade Individual de Advocacia"/>
+    <hyperlink ref="C19" r:id="rId33" display="22180"/>
+    <hyperlink ref="O19" r:id="rId34" display="Dma Distribuidora S/A" tooltip="Dma Distribuidora S/A"/>
+    <hyperlink ref="C20" r:id="rId35" display="22179"/>
+    <hyperlink ref="O20" r:id="rId36" display="Carlos de Souza - Advogados - EPP" tooltip="Carlos de Souza - Advogados - EPP"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
